--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CFA19-537C-4B8D-A331-9EB83E8360E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C248B-656D-4025-A879-EE2A9466441A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Besucher</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>Email verschickt</t>
+  </si>
+  <si>
+    <t>wstoiber@tgm.ac.at</t>
+  </si>
+  <si>
+    <t>vikoler.carolin@gmx.at</t>
+  </si>
+  <si>
+    <t>paul.josef.staudinger@gmail.com</t>
+  </si>
+  <si>
+    <t>dsattlergg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -149,6 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -470,20 +483,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.86328125" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +506,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -503,43 +516,58 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
@@ -547,7 +575,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
@@ -555,128 +583,134 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{AC47E0D5-ACC4-462B-A80C-DB1F11B90DC7}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{9E2137C7-55A4-4BF5-A4B3-BAC88BF53DC4}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{90F67F88-2491-4E02-81E3-313B2E9DD5CC}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{64F9D735-9237-4DA6-8589-319EEDD820F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C248B-656D-4025-A879-EE2A9466441A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977ACED0-73F2-476C-AC34-5378DCCA1971}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Besucher</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>dsattlergg@gmail.com</t>
+  </si>
+  <si>
+    <t>felix@aust.at</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -568,8 +571,12 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -710,6 +717,7 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{9E2137C7-55A4-4BF5-A4B3-BAC88BF53DC4}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{90F67F88-2491-4E02-81E3-313B2E9DD5CC}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{64F9D735-9237-4DA6-8589-319EEDD820F4}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{BC5F29D5-0B6F-4653-A23F-ACA10F8ADEEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977ACED0-73F2-476C-AC34-5378DCCA1971}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58E4BA-0822-4BDE-A093-CD4F13832711}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Besucher</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>felix@aust.at</t>
+  </si>
+  <si>
+    <t>florian.sylkaj1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -583,8 +586,12 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -718,6 +725,7 @@
     <hyperlink ref="A6" r:id="rId3" xr:uid="{90F67F88-2491-4E02-81E3-313B2E9DD5CC}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{64F9D735-9237-4DA6-8589-319EEDD820F4}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{BC5F29D5-0B6F-4653-A23F-ACA10F8ADEEB}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{8F571B11-02DF-40D1-A467-C70F3E8D3FE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58E4BA-0822-4BDE-A093-CD4F13832711}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86340F3-4295-4AA0-A5E3-F18E268D6BDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86340F3-4295-4AA0-A5E3-F18E268D6BDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC92821-213E-4ED6-BAAC-2AF429B930E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Besucher</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>florian.sylkaj1@gmail.com</t>
+  </si>
+  <si>
+    <t>schreiner.felix@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -598,8 +601,12 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -726,6 +733,7 @@
     <hyperlink ref="A4" r:id="rId4" xr:uid="{64F9D735-9237-4DA6-8589-319EEDD820F4}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{BC5F29D5-0B6F-4653-A23F-ACA10F8ADEEB}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{8F571B11-02DF-40D1-A467-C70F3E8D3FE1}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{6D9F6096-1273-4F1C-8895-9DC5164B0CDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC92821-213E-4ED6-BAAC-2AF429B930E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C854684-61F0-455E-92D1-7D42631EB0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Besucher</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>schreiner.felix@gmail.com</t>
+  </si>
+  <si>
+    <t>sdoulatzai@student.tgm.ac.at</t>
+  </si>
+  <si>
+    <t>skylander0@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -611,14 +617,22 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -734,6 +748,8 @@
     <hyperlink ref="A7" r:id="rId5" xr:uid="{BC5F29D5-0B6F-4653-A23F-ACA10F8ADEEB}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{8F571B11-02DF-40D1-A467-C70F3E8D3FE1}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{6D9F6096-1273-4F1C-8895-9DC5164B0CDE}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{5178FF79-55CC-41A4-AE52-57884B3751D5}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{5EC39ED3-F3DF-40D9-A162-CCD1ED771915}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C854684-61F0-455E-92D1-7D42631EB0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BC14DE-490A-4A31-85FE-421CA81692E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontaktliste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Besucher</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>skylander0@gmx.at</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -498,20 +501,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +524,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -534,89 +537,103 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -626,7 +643,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -635,108 +652,108 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
   </sheetData>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C854684-61F0-455E-92D1-7D42631EB0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CEA00-4C63-4CDC-A4EC-E1B646A165E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Besucher</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>skylander0@gmx.at</t>
+  </si>
+  <si>
+    <t>claudiaschloegl2018@gmail.com</t>
+  </si>
+  <si>
+    <t>koch@wientext.at</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -636,13 +642,21 @@
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -750,6 +764,8 @@
     <hyperlink ref="A9" r:id="rId7" xr:uid="{6D9F6096-1273-4F1C-8895-9DC5164B0CDE}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{5178FF79-55CC-41A4-AE52-57884B3751D5}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{5EC39ED3-F3DF-40D9-A162-CCD1ED771915}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{5FA027F1-98AD-437B-88E0-10E24514D99F}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00F5E563-C6D8-4D02-A965-FAD6EBC0214E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CEA00-4C63-4CDC-A4EC-E1B646A165E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020AD6C-108D-4F30-9C52-6463FB4C05B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Besucher</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>koch@wientext.at</t>
+  </si>
+  <si>
+    <t>diverschmalzbauer03@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -660,8 +663,12 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -766,6 +773,7 @@
     <hyperlink ref="A10" r:id="rId9" xr:uid="{5EC39ED3-F3DF-40D9-A162-CCD1ED771915}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{5FA027F1-98AD-437B-88E0-10E24514D99F}"/>
     <hyperlink ref="A13" r:id="rId11" xr:uid="{00F5E563-C6D8-4D02-A965-FAD6EBC0214E}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{432A2AE0-A2E5-46C5-8792-2ED86DA2FC8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CEA00-4C63-4CDC-A4EC-E1B646A165E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E18EE96-15B7-4610-BF9E-7685D931CCBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontaktliste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Besucher</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>koch@wientext.at</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -504,20 +507,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +530,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -540,89 +543,103 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -632,7 +649,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -641,7 +658,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -650,7 +667,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -659,98 +676,98 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
   </sheetData>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020AD6C-108D-4F30-9C52-6463FB4C05B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92C72F-815B-48A4-956A-F0A863346EA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Besucher</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>diverschmalzbauer03@gmail.com</t>
+  </si>
+  <si>
+    <t>petrusova@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -672,8 +675,12 @@
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -774,6 +781,7 @@
     <hyperlink ref="A12" r:id="rId10" xr:uid="{5FA027F1-98AD-437B-88E0-10E24514D99F}"/>
     <hyperlink ref="A13" r:id="rId11" xr:uid="{00F5E563-C6D8-4D02-A965-FAD6EBC0214E}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{432A2AE0-A2E5-46C5-8792-2ED86DA2FC8F}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{5CC12210-ABD0-4816-8955-EE408FE6F6E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92C72F-815B-48A4-956A-F0A863346EA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABE4074-83E7-4FD5-A7ED-C1039FAF72C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Besucher</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>petrusova@gmx.at</t>
+  </si>
+  <si>
+    <t>krl@otas.at</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -684,8 +687,12 @@
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -782,6 +789,7 @@
     <hyperlink ref="A13" r:id="rId11" xr:uid="{00F5E563-C6D8-4D02-A965-FAD6EBC0214E}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{432A2AE0-A2E5-46C5-8792-2ED86DA2FC8F}"/>
     <hyperlink ref="A15" r:id="rId13" xr:uid="{5CC12210-ABD0-4816-8955-EE408FE6F6E1}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{A72E1B08-F7A3-4BFD-8C39-7A0A657BB0A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABE4074-83E7-4FD5-A7ED-C1039FAF72C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7A42E-1270-4544-8365-706A03CFB330}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="585" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Besucher</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>krl@otas.at</t>
+  </si>
+  <si>
+    <t>andretschi8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -696,8 +699,12 @@
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -790,6 +797,7 @@
     <hyperlink ref="A14" r:id="rId12" xr:uid="{432A2AE0-A2E5-46C5-8792-2ED86DA2FC8F}"/>
     <hyperlink ref="A15" r:id="rId13" xr:uid="{5CC12210-ABD0-4816-8955-EE408FE6F6E1}"/>
     <hyperlink ref="A16" r:id="rId14" xr:uid="{A72E1B08-F7A3-4BFD-8C39-7A0A657BB0A9}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{CC5EAAB5-29F7-47B7-9B68-11C6B7F75B70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E18EE96-15B7-4610-BF9E-7685D931CCBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97456F-A8CC-426E-A294-22CC8431F7B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Besucher</t>
   </si>
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,9 @@
       <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -656,7 +658,9 @@
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -665,7 +669,9 @@
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -674,7 +680,9 @@
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97456F-A8CC-426E-A294-22CC8431F7B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D0103B-A789-4BDD-AA5E-39116A442B36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Besucher</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>diverschmalzbauer03@gmail.com</t>
+  </si>
+  <si>
+    <t>petrusova@gmx.at</t>
+  </si>
+  <si>
+    <t>krl@otas.at</t>
+  </si>
+  <si>
+    <t>andretschi8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -506,21 +518,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.86328125" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +542,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +555,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -557,7 +569,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -571,7 +583,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -585,7 +597,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -599,7 +611,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -613,7 +625,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -627,7 +639,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -639,7 +651,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -651,7 +663,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -662,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -673,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -684,98 +696,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
     </row>
   </sheetData>
@@ -791,6 +819,10 @@
     <hyperlink ref="A10" r:id="rId9" xr:uid="{5EC39ED3-F3DF-40D9-A162-CCD1ED771915}"/>
     <hyperlink ref="A12" r:id="rId10" xr:uid="{5FA027F1-98AD-437B-88E0-10E24514D99F}"/>
     <hyperlink ref="A13" r:id="rId11" xr:uid="{00F5E563-C6D8-4D02-A965-FAD6EBC0214E}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{29C54DA9-14CE-4FD2-AC3D-670B71451D53}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{F7ECC73D-CA6F-4AB7-91E6-73DC7C8FFC73}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{6014B8B0-2836-4A1B-8B2B-7197CE7C7294}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{7DE6A3A7-FCCB-432A-A2E8-F424CE0A85E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D0103B-A789-4BDD-AA5E-39116A442B36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE6AD74-6BA8-4516-B7E1-34936C1FC086}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Besucher</t>
   </si>
@@ -518,21 +518,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -651,7 +651,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -663,7 +663,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -674,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -696,34 +696,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -732,78 +738,78 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
   </sheetData>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE6AD74-6BA8-4516-B7E1-34936C1FC086}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14136F22-AAA3-4E69-8A48-1ECC26DE333F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Besucher</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>andretschi8@gmail.com</t>
+  </si>
+  <si>
+    <t>jobayati@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -519,20 +522,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.86328125" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +558,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -569,7 +572,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -583,7 +586,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -597,7 +600,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -611,7 +614,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -625,7 +628,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -639,7 +642,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -651,7 +654,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -663,7 +666,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -674,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -685,7 +688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -696,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -707,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -718,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -729,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -738,78 +741,82 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
     </row>
   </sheetData>
@@ -829,6 +836,7 @@
     <hyperlink ref="A15" r:id="rId13" xr:uid="{F7ECC73D-CA6F-4AB7-91E6-73DC7C8FFC73}"/>
     <hyperlink ref="A16" r:id="rId14" xr:uid="{6014B8B0-2836-4A1B-8B2B-7197CE7C7294}"/>
     <hyperlink ref="A17" r:id="rId15" xr:uid="{7DE6A3A7-FCCB-432A-A2E8-F424CE0A85E3}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{82E28E9F-B130-45A5-B12F-EA0869A37563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14136F22-AAA3-4E69-8A48-1ECC26DE333F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692826C0-D6D1-4824-9BEB-F06128A40230}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Besucher</t>
   </si>
@@ -522,20 +522,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -654,7 +654,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -677,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -732,91 +732,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
   </sheetData>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14136F22-AAA3-4E69-8A48-1ECC26DE333F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3908FD1-6023-4FEA-B86B-71EAB6CED72A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Besucher</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>jobayati@gmail.com</t>
+  </si>
+  <si>
+    <t>tamara.pfeifer@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -751,8 +754,12 @@
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -837,6 +844,7 @@
     <hyperlink ref="A16" r:id="rId14" xr:uid="{6014B8B0-2836-4A1B-8B2B-7197CE7C7294}"/>
     <hyperlink ref="A17" r:id="rId15" xr:uid="{7DE6A3A7-FCCB-432A-A2E8-F424CE0A85E3}"/>
     <hyperlink ref="A18" r:id="rId16" xr:uid="{82E28E9F-B130-45A5-B12F-EA0869A37563}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{E13C195C-332A-435C-A44D-80DD9053208B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3908FD1-6023-4FEA-B86B-71EAB6CED72A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58B597E-7817-460B-B3C2-828B7D37EF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Besucher</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>tamara.pfeifer@gmail.com</t>
+  </si>
+  <si>
+    <t>pokemontwogo123@gmail.com</t>
+  </si>
+  <si>
+    <t>katka1606@azet.gk</t>
+  </si>
+  <si>
+    <t>mari-online@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -763,18 +772,30 @@
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -845,6 +866,9 @@
     <hyperlink ref="A17" r:id="rId15" xr:uid="{7DE6A3A7-FCCB-432A-A2E8-F424CE0A85E3}"/>
     <hyperlink ref="A18" r:id="rId16" xr:uid="{82E28E9F-B130-45A5-B12F-EA0869A37563}"/>
     <hyperlink ref="A19" r:id="rId17" xr:uid="{E13C195C-332A-435C-A44D-80DD9053208B}"/>
+    <hyperlink ref="A22" r:id="rId18" xr:uid="{E34947A8-063D-46A0-84FD-68B4EE0096BE}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{03D4D374-AC42-4E1D-8181-03DC30A428A8}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{EEE966CA-7123-43D3-9679-73E7B89B4FCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58B597E-7817-460B-B3C2-828B7D37EF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAE353-5BBC-4B62-A12D-6726CC6C3E68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,10 +91,10 @@
     <t>pokemontwogo123@gmail.com</t>
   </si>
   <si>
-    <t>katka1606@azet.gk</t>
-  </si>
-  <si>
     <t>mari-online@gmx.at</t>
+  </si>
+  <si>
+    <t>katka1606@azet.sk</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>19</v>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAE353-5BBC-4B62-A12D-6726CC6C3E68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE1A4C4-6968-43C7-AF23-09CABD1A009D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Besucher</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>katka1606@azet.sk</t>
+  </si>
+  <si>
+    <t>larivienna@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -799,7 +802,12 @@
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -869,6 +877,7 @@
     <hyperlink ref="A22" r:id="rId18" xr:uid="{E34947A8-063D-46A0-84FD-68B4EE0096BE}"/>
     <hyperlink ref="A20" r:id="rId19" xr:uid="{03D4D374-AC42-4E1D-8181-03DC30A428A8}"/>
     <hyperlink ref="A21" r:id="rId20" xr:uid="{EEE966CA-7123-43D3-9679-73E7B89B4FCB}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{D22C28A4-05D2-4162-A828-70B0DEA0BA8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE1A4C4-6968-43C7-AF23-09CABD1A009D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A332A50-9445-4AF9-A990-D1CA781F2DCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Besucher</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>larivienna@hotmail.com</t>
+  </si>
+  <si>
+    <t>georg.stuppner@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -811,7 +814,12 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -878,6 +886,7 @@
     <hyperlink ref="A20" r:id="rId19" xr:uid="{03D4D374-AC42-4E1D-8181-03DC30A428A8}"/>
     <hyperlink ref="A21" r:id="rId20" xr:uid="{EEE966CA-7123-43D3-9679-73E7B89B4FCB}"/>
     <hyperlink ref="A23" r:id="rId21" xr:uid="{D22C28A4-05D2-4162-A828-70B0DEA0BA8B}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{33536F84-A176-40EE-B446-11C4D89B92AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A332A50-9445-4AF9-A990-D1CA781F2DCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA6421-E3A5-402E-BBC7-F8912E7AB717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Besucher</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>georg.stuppner@gmx.at</t>
+  </si>
+  <si>
+    <t>scaasi@student.tgm..ac.at</t>
+  </si>
+  <si>
+    <t>machtsnit@student.tgm.ac.at</t>
+  </si>
+  <si>
+    <t>hierkommtdam@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -540,7 +549,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -823,15 +832,29 @@
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
+      <c r="A27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
@@ -887,6 +910,9 @@
     <hyperlink ref="A21" r:id="rId20" xr:uid="{EEE966CA-7123-43D3-9679-73E7B89B4FCB}"/>
     <hyperlink ref="A23" r:id="rId21" xr:uid="{D22C28A4-05D2-4162-A828-70B0DEA0BA8B}"/>
     <hyperlink ref="A24" r:id="rId22" xr:uid="{33536F84-A176-40EE-B446-11C4D89B92AB}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{2569308A-6561-48A1-9147-3893C41D7596}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{E2662266-941B-44D6-A56A-512151F1B777}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{5737B845-114F-4285-8024-6FD22EC72AE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA6421-E3A5-402E-BBC7-F8912E7AB717}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BC752-01CD-455C-A01E-39898811D8FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Besucher</t>
   </si>
@@ -103,13 +103,16 @@
     <t>georg.stuppner@gmx.at</t>
   </si>
   <si>
-    <t>scaasi@student.tgm..ac.at</t>
-  </si>
-  <si>
     <t>machtsnit@student.tgm.ac.at</t>
   </si>
   <si>
     <t>hierkommtdam@gmx.at</t>
+  </si>
+  <si>
+    <t>elshazly.mo@gmail.com</t>
+  </si>
+  <si>
+    <t>scaasi@student.tgm.ac.at</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -833,7 +836,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25" s="7">
         <v>23</v>
@@ -842,7 +845,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7">
         <v>24</v>
@@ -850,10 +853,18 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -913,6 +924,7 @@
     <hyperlink ref="A25" r:id="rId23" xr:uid="{2569308A-6561-48A1-9147-3893C41D7596}"/>
     <hyperlink ref="A27" r:id="rId24" xr:uid="{E2662266-941B-44D6-A56A-512151F1B777}"/>
     <hyperlink ref="A26" r:id="rId25" xr:uid="{5737B845-114F-4285-8024-6FD22EC72AE4}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{4D09D34A-1356-4D33-B6F4-C296C62B4676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BC752-01CD-455C-A01E-39898811D8FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685555E2-28A6-4B50-98FA-25537AA970AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Besucher</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>scaasi@student.tgm.ac.at</t>
+  </si>
+  <si>
+    <t>aboutahar@student.tgm.ac.at</t>
+  </si>
+  <si>
+    <t>amelie@ifink.at</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -868,10 +874,20 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
+      <c r="A29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7"/>
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
@@ -925,6 +941,8 @@
     <hyperlink ref="A27" r:id="rId24" xr:uid="{E2662266-941B-44D6-A56A-512151F1B777}"/>
     <hyperlink ref="A26" r:id="rId25" xr:uid="{5737B845-114F-4285-8024-6FD22EC72AE4}"/>
     <hyperlink ref="A28" r:id="rId26" xr:uid="{4D09D34A-1356-4D33-B6F4-C296C62B4676}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{C7606B14-06B9-4485-99D3-7415972567EA}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{0282DFAF-A7E6-4F71-BC8B-544B8CF7B41E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685555E2-28A6-4B50-98FA-25537AA970AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D130EC-4D6C-4C15-8D3A-0179D536310E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Besucher</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>amelie@ifink.at</t>
+  </si>
+  <si>
+    <t>steini_indy1@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -890,7 +893,12 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="7"/>
+      <c r="A31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
@@ -943,6 +951,7 @@
     <hyperlink ref="A28" r:id="rId26" xr:uid="{4D09D34A-1356-4D33-B6F4-C296C62B4676}"/>
     <hyperlink ref="A29" r:id="rId27" xr:uid="{C7606B14-06B9-4485-99D3-7415972567EA}"/>
     <hyperlink ref="A30" r:id="rId28" xr:uid="{0282DFAF-A7E6-4F71-BC8B-544B8CF7B41E}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{96014C86-41FC-49F9-9A56-6808C08BB2BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D130EC-4D6C-4C15-8D3A-0179D536310E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5813DEF-97C7-4F4B-B7CB-B47D7C5DDB9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Besucher</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>steini_indy1@gmx.at</t>
+  </si>
+  <si>
+    <t>fadia.salama@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -901,7 +904,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="7"/>
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
@@ -952,6 +960,7 @@
     <hyperlink ref="A29" r:id="rId27" xr:uid="{C7606B14-06B9-4485-99D3-7415972567EA}"/>
     <hyperlink ref="A30" r:id="rId28" xr:uid="{0282DFAF-A7E6-4F71-BC8B-544B8CF7B41E}"/>
     <hyperlink ref="A31" r:id="rId29" xr:uid="{96014C86-41FC-49F9-9A56-6808C08BB2BD}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{95B22495-EF43-4620-929F-3160B0174B5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KundenInfo/list.xlsx
+++ b/KundenInfo/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leowi\Desktop\Fotolabor\FotoLabor\KundenInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renes\Pictures\Fotolabor\KundenInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5813DEF-97C7-4F4B-B7CB-B47D7C5DDB9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A39C024-7274-45D4-9F4F-8E58D15CF202}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="14055" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Besucher</t>
   </si>
@@ -563,21 +563,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="34.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="5.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -719,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -730,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -752,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -774,159 +774,198 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
   </sheetData>
